--- a/biology/Botanique/Polystachya_bicalcarata/Polystachya_bicalcarata.xlsx
+++ b/biology/Botanique/Polystachya_bicalcarata/Polystachya_bicalcarata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya bicalcarata Kraenzl. est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, présente au Cameroun, au Nigeria, en Guinée équatoriale et au Gabon. Elle figure sur la liste rouge de l'UICN comme espèce vulnérable (VU).
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Cameroun, l'espèce a été observée à Buéa, au mont Cameroun, au mont Etinde (ou Petit mont Cameroun), au mont Koupé, à Muambong, sur les hauts plateaux du Lebialem, sur les monts Bamboutos et au mont Oku[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Cameroun, l'espèce a été observée à Buéa, au mont Cameroun, au mont Etinde (ou Petit mont Cameroun), au mont Koupé, à Muambong, sur les hauts plateaux du Lebialem, sur les monts Bamboutos et au mont Oku.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte des forêts submontagnardes et montagnardes, présente entre 950 et 2 100 m. Elle a également été observée sur Cola sp. dans des plantations de café[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte des forêts submontagnardes et montagnardes, présente entre 950 et 2 100 m. Elle a également été observée sur Cola sp. dans des plantations de café.
 </t>
         </is>
       </c>
